--- a/pages/pages.xlsx
+++ b/pages/pages.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28209"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tcxy/Documents/workspace/auto_page/pages/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6400" yWindow="720" windowWidth="22320" windowHeight="17280" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="132">
   <si>
     <t>userName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -351,11 +351,226 @@
     <t>Fail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>/risk/trics/model/toModelAttrPage?funCode=30202</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>502mkModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素管理 / 模型管理 / 新建模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建模型属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/risk/trics/model/toEdit?moduleId=1247&amp;funCode=30206</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>503toEditModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素管理 / 模型管理 / 查看模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素管理 / 模型管理 / 测试模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/risk/trics/model/toTest?moduleId=1247&amp;testType=1&amp;funCode=30206&amp;rootModuleId=1247</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>504toTestModel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素管理 / 包函数管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/risk/trics/rulePackage/toElementPackagePage?packageType=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>601rulePackage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R包函数管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素管理 / 包函数管理 / 新建包函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/risk/trics/rulePackage/toPackageAttrPage?funCode=30302&amp;packageType=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建包安装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/risk/trics/rulePackage/toPackageFunctionPage?moduleId=3022&amp;funCode=30306</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603toViewRuleP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>602mkRuleP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看包函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素管理 / 包函数管理 / 查看包函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元素管理 / 包函数管理 / 测试包函数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>604toTestRuleP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/risk/trics/rulePackage/toTest?moduleId=2928</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/risk/trics/definedVariable/toDataDefinePage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据管理 / 自定义数据管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>701definedVariable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自定义数据管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/risk/trics/definedVariable/toCustomAttrPage?funCode=40102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>702mkDefinedV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据管理 / 自定义数据管理 / 新建自定义数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建自定义数据属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/risk/trics/definedVariable/toExpressionPage?id=497&amp;funCode=40106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>703toViewDefinedV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据管理 / 自定义数据管理 / 查看自定义数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据管理 / 自定义数据管理 / 测试自定义数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/risk/trics/definedVariable/toTest?id=497&amp;funCode=40106</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>704toTestDefinedV</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <rPh sb="0" eb="1">
+      <t>ce shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查看自定义数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/risk/trics/undefinedVariable/toDataUndefinePage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据管理 / 非自定义数据管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>705undefinedVariable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非自定义数据管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/risk/trics/paramVariable/toDataParamPage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据调取参数管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>706paramVariable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据管理 / 数据调取参数管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -876,7 +1091,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="18.83203125" defaultRowHeight="23" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="18.83203125" style="2" collapsed="1"/>
+    <col min="1" max="16384" style="2" width="18.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="23" customHeight="1" x14ac:dyDescent="0.2">
@@ -917,19 +1132,20 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="33.1640625" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="91" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="15.5" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="10.83203125" style="8" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="41.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="20.5" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="88.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="15.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="7.1640625" collapsed="true"/>
+    <col min="6" max="16384" style="8" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.15">
@@ -1011,7 +1227,7 @@
         <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1232,6 +1448,227 @@
         <v>56</v>
       </c>
       <c r="E18" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E25" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D26" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A28" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A29" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="E29" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" t="s">
         <v>77</v>
       </c>
     </row>

--- a/pages/pages.xlsx
+++ b/pages/pages.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6400" yWindow="720" windowWidth="22320" windowHeight="17280" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28720" windowHeight="17540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="pages" sheetId="2" r:id="rId2"/>
+    <sheet name="module" sheetId="2" r:id="rId2"/>
+    <sheet name="pagesAll" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="106">
   <si>
     <t>userName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -54,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/risk/trics/plan/toPlanAttrPage?funCode=10202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>方案管理 / 方案配置 / 新建方案</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>方案管理 / 方案执行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -91,10 +84,6 @@
   </si>
   <si>
     <t>方案配置</t>
-  </si>
-  <si>
-    <t>新建方案属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试</t>
@@ -166,18 +155,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/risk/trics/ruleGroup/toRuleSetAttrPage?funCode=20202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略管理 / 规则集管理 / 新建规则集</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建规则集属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/risk/trics/ruleGroup/toEdit?moduleId=3123&amp;funCode=20205</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,18 +191,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/risk/trics/rule/toRuleAttrPage?funCode=30102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素管理 / 规则管理 / 新建规则</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建规则属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/risk/trics/rule/toEdit?moduleId=3116&amp;funCode=30109</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -282,10 +247,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>202mkPlan</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>203toEditPlan</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,10 +259,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>302mkRuleG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>303toEditRuleG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -311,10 +268,6 @@
   </si>
   <si>
     <t>401rule</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>402mkRule</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -345,29 +298,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Fail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/risk/trics/model/toModelAttrPage?funCode=30202</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>502mkModel</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元素管理 / 模型管理 / 新建模型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建模型属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/risk/trics/model/toEdit?moduleId=1247&amp;funCode=30206</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -416,18 +346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>元素管理 / 包函数管理 / 新建包函数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/risk/trics/rulePackage/toPackageAttrPage?funCode=30302&amp;packageType=1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建包安装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/risk/trics/rulePackage/toPackageFunctionPage?moduleId=3022&amp;funCode=30306</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -436,10 +354,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>602mkRuleP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>查看包函数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -460,10 +374,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>/risk/trics/definedVariable/toDataDefinePage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,22 +387,6 @@
   </si>
   <si>
     <t>自定义数据管理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/risk/trics/definedVariable/toCustomAttrPage?funCode=40102</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>702mkDefinedV</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据管理 / 自定义数据管理 / 新建自定义数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建自定义数据属性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -561,6 +455,9 @@
   <si>
     <t>数据管理 / 数据调取参数管理</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Pass</t>
   </si>
   <si>
     <t>Fail</t>
@@ -709,17 +606,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -727,56 +614,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1132,71 +969,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="41.1640625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="20.5" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="23.0" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="88.33203125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="15.5" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="19.5" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="7.1640625" collapsed="true"/>
     <col min="6" max="16384" style="8" width="10.83203125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.15">
       <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>24</v>
-      </c>
       <c r="E1" s="6" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>10</v>
-      </c>
       <c r="B3" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>19</v>
+        <v>63</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>62</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1204,64 +1038,283 @@
         <v>12</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>57</v>
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Pass">
+      <formula>NOT(ISERROR(SEARCH("Pass",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" bestFit="true" customWidth="true" style="8" width="41.1640625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="8" width="23.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="8" width="88.33203125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="8" width="19.5" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="8" width="7.1640625" collapsed="true"/>
+    <col min="6" max="16384" style="8" width="10.83203125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" s="7" customFormat="1" ht="19" x14ac:dyDescent="0.15">
+      <c r="A1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>48</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="8" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C6" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>15</v>
-      </c>
       <c r="E6" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1269,33 +1322,33 @@
         <v>26</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>27</v>
+      <c r="D8" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>17</v>
-      </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1303,7 +1356,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>30</v>
@@ -1312,7 +1365,7 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1320,7 +1373,7 @@
         <v>34</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>33</v>
@@ -1329,7 +1382,7 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1337,7 +1390,7 @@
         <v>37</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>36</v>
@@ -1346,7 +1399,7 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1354,7 +1407,7 @@
         <v>40</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>39</v>
@@ -1363,7 +1416,7 @@
         <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1371,7 +1424,7 @@
         <v>43</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>42</v>
@@ -1380,7 +1433,7 @@
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="16" x14ac:dyDescent="0.2">
@@ -1388,7 +1441,7 @@
         <v>46</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>45</v>
@@ -1397,289 +1450,187 @@
         <v>47</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>49</v>
+        <v>67</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="D16" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="E16" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="B17" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>53</v>
-      </c>
       <c r="E17" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="8" t="s">
+      <c r="D19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B19" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="8" t="s">
+      <c r="B20" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="E19" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="8" t="s">
-        <v>84</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>83</v>
       </c>
       <c r="D20" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E20" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="8" t="s">
+      <c r="C22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E21" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A22" s="8" t="s">
+      <c r="D22" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B23" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D23" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A23" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="8" t="s">
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A24" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B24" s="8" t="s">
+      <c r="D24" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="E24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A26" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="E26" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A27" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="E27" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A28" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="E30" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C31" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="D31" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" t="s">
-        <v>77</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E1:E1048576">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Pass">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Fail">
+      <formula>NOT(ISERROR(SEARCH("Fail",E1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",E1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Fail">
-      <formula>NOT(ISERROR(SEARCH("Fail",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
